--- a/app/user_input.xlsx
+++ b/app/user_input.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cheo</t>
+          <t>Chèo</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hatxam</t>
+          <t>Hát xẩm</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>cheo</t>
+          <t>Chèo</t>
         </is>
       </c>
     </row>
@@ -545,6 +545,216 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>Chầu văn</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NonThungQuaiThao-CHEO.mp3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chèo</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ThinhMauVaQuanDeNhat-CHAUVAN.mp3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chầu văn</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TuongTienTuu-QuachThiHo-CATRU.wav</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ca trù</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tinhyeuvagiotnuocmat-NguyenKha-CAILUONG.mp3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cải lương</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ThinhMauVaQuanDeNhat-CHAUVAN.mp3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chầu văn</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TuongTienTuu-QuachThiHo-CATRU.wav</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ca trù</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CauBeDoiNgang-VanChuong-CHAUVAN.mp3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chèo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CauBeDoiNgang-VanChuong-CHAUVAN.mp3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chèo</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NonThungQuaiThao-CHEO.mp3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chèo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>loithenonnuoc_catru.mp3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ca trù</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TinhThuHaVi-QuocPhong-CHEO.mp3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chèo</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tinhyeuvagiotnuocmat-NguyenKha-CAILUONG.mp3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cải lương</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LenhTruyNa-VuongLinh-CAILUONG.mp3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Cải lương</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>VanChauLuc-VanChung_CHAUVAN.mp3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Chầu văn</t>
         </is>

--- a/app/user_input.xlsx
+++ b/app/user_input.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,6 +760,21 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BaChuaThac-ChauVan-ThanhNgoan-CHAUVAN.mp3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chầu văn</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
